--- a/data/statistical/filled_NaN_xlsx/新疆维吾尔自治区_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/新疆维吾尔自治区_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>45.5</v>
       </c>
       <c r="E2">
-        <v>2217.194641560316</v>
+        <v>2217.19464199245</v>
       </c>
       <c r="F2">
         <v>5636.4</v>
@@ -609,85 +609,85 @@
         <v>10.87</v>
       </c>
       <c r="H2">
-        <v>42.92295414702153</v>
+        <v>47.08362038885146</v>
       </c>
       <c r="I2">
-        <v>3.417564499366563</v>
+        <v>3.417564499548462</v>
       </c>
       <c r="J2">
-        <v>24.79611198417842</v>
+        <v>24.79611196182668</v>
       </c>
       <c r="K2">
-        <v>28.82020382024348</v>
+        <v>28.82020382129122</v>
       </c>
       <c r="L2">
-        <v>1.503775118195335</v>
+        <v>1.503775118180783</v>
       </c>
       <c r="M2">
-        <v>217.7844142624162</v>
+        <v>217.7844142637987</v>
       </c>
       <c r="N2">
-        <v>163.7506989768998</v>
+        <v>161.5963252191158</v>
       </c>
       <c r="O2">
-        <v>27.06014705402777</v>
+        <v>27.06014706008136</v>
       </c>
       <c r="P2">
-        <v>960.5635855719447</v>
+        <v>960.5635855607688</v>
       </c>
       <c r="Q2">
-        <v>84.10617647059553</v>
+        <v>84.1061764707556</v>
       </c>
       <c r="R2">
-        <v>23.4435294161085</v>
+        <v>23.44352940481622</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-56031.27044010162</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.299318681594741</v>
+        <v>1.299318681180011</v>
       </c>
       <c r="V2">
-        <v>60.4308049528554</v>
+        <v>60.43080495294635</v>
       </c>
       <c r="W2">
-        <v>15.95237362652551</v>
+        <v>15.9523736233823</v>
       </c>
       <c r="X2">
-        <v>5911.008371589196</v>
+        <v>6313.568032873412</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-15.23408241925063</v>
       </c>
       <c r="Z2">
-        <v>200639.5246817535</v>
+        <v>221099.9670972477</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>199.3688811268657</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>291114.8568496704</v>
       </c>
       <c r="AC2">
-        <v>15363.54980921745</v>
+        <v>411336.3939247131</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>7331.452799618244</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-47.80454736948013</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>5569.041666477919</v>
       </c>
       <c r="AG2">
-        <v>597.7312064261753</v>
+        <v>7826.134791254997</v>
       </c>
       <c r="AH2">
-        <v>4296.044448145845</v>
+        <v>-27107.2665913105</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>10.78</v>
       </c>
       <c r="H3">
-        <v>52.97508509396336</v>
+        <v>37.39488434636485</v>
       </c>
       <c r="I3">
         <v>2.9</v>
       </c>
       <c r="J3">
-        <v>24.81984804011881</v>
+        <v>24.81984802056104</v>
       </c>
       <c r="K3">
         <v>24.9158427651284</v>
@@ -743,7 +743,7 @@
         <v>85.15000000000001</v>
       </c>
       <c r="R3">
-        <v>20.06544118071906</v>
+        <v>20.06544116977602</v>
       </c>
       <c r="S3">
         <v>12389.5</v>
@@ -764,34 +764,34 @@
         <v>5177</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-7.626585166086443</v>
       </c>
       <c r="Z3">
-        <v>251633.6659523965</v>
+        <v>284247.6054309897</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>171.3234265735373</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>216307.0935440063</v>
       </c>
       <c r="AC3">
-        <v>13809.71589505672</v>
+        <v>317257.6057777405</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6016.526225745678</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-768.8402116298676</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4863.053571209311</v>
       </c>
       <c r="AG3">
-        <v>1019.408309688248</v>
+        <v>6765.715560078621</v>
       </c>
       <c r="AH3">
-        <v>5065.119701132999</v>
+        <v>-19897.8047055006</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>10.91</v>
       </c>
       <c r="H4">
-        <v>54.42353715459538</v>
+        <v>43.93078709071601</v>
       </c>
       <c r="I4">
         <v>3.5</v>
       </c>
       <c r="J4">
-        <v>27.43832887988538</v>
+        <v>27.43832886219025</v>
       </c>
       <c r="K4">
         <v>25.3498046707015</v>
@@ -868,34 +868,34 @@
         <v>5399</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-0.2599532977328636</v>
       </c>
       <c r="Z4">
         <v>206001</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>147.4003496421501</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>154081.1840362549</v>
       </c>
       <c r="AC4">
-        <v>12493.75036239624</v>
+        <v>237704.111541748</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4844.139612019062</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-1329.125426352024</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>4207.624999791384</v>
       </c>
       <c r="AG4">
-        <v>1006.957059775006</v>
+        <v>5858.674201250076</v>
       </c>
       <c r="AH4">
-        <v>2657.555641902748</v>
+        <v>-12992.60820412636</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.9</v>
       </c>
       <c r="J5">
-        <v>32.65155450254679</v>
+        <v>32.65155448764563</v>
       </c>
       <c r="K5">
         <v>23.0551534258253</v>
@@ -972,34 +972,34 @@
         <v>5301</v>
       </c>
       <c r="Y5">
-        <v>6.865813184122089</v>
+        <v>6.865813185984734</v>
       </c>
       <c r="Z5">
         <v>163053</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>127.5996503354982</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>104437.128326416</v>
       </c>
       <c r="AC5">
-        <v>11415.653211236</v>
+        <v>172675.9112129211</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>3814.292958378792</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-1728.660191655159</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>3602.755952179432</v>
       </c>
       <c r="AG5">
-        <v>60.81823710507516</v>
+        <v>5105.010714411736</v>
       </c>
       <c r="AH5">
-        <v>6107.771567242939</v>
+        <v>-6391.677087306976</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>6973</v>
       </c>
       <c r="Y6">
-        <v>13.75071428337833</v>
+        <v>13.75071428506635</v>
       </c>
       <c r="Z6">
         <v>113808</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>111.9213286507875</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>67374.92641448975</v>
       </c>
       <c r="AC6">
-        <v>10575.424441576</v>
+        <v>122173.0047912598</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2926.986264646053</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-1967.444507241249</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3048.446428343654</v>
       </c>
       <c r="AG6">
-        <v>745.4421613516452</v>
+        <v>4504.725099861622</v>
       </c>
       <c r="AH6">
-        <v>5387.30231869756</v>
+        <v>-95.011354804039</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>171286</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>100.3653845917434</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>42894.57830429077</v>
       </c>
       <c r="AC7">
-        <v>9973.064053356647</v>
+        <v>86195.39228057861</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2182.21953111887</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-2045.478373229504</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2544.696428358555</v>
       </c>
       <c r="AG7">
-        <v>202.8465204552512</v>
+        <v>4057.817357361317</v>
       </c>
       <c r="AH7">
-        <v>3069.611038753897</v>
+        <v>5897.388993144035</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>270660</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>92.9318181546405</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>30996.08399200439</v>
       </c>
       <c r="AC8">
-        <v>9608.57204669714</v>
+        <v>64743.07367706299</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1579.992757678032</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>-1962.761789679527</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2091.505952164531</v>
       </c>
       <c r="AG8">
-        <v>677.5671960574648</v>
+        <v>3764.287487149239</v>
       </c>
       <c r="AH8">
-        <v>2525.809046637637</v>
+        <v>11585.52395665646</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>343565</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>89.62062934227288</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>31679.44347763062</v>
       </c>
       <c r="AC9">
-        <v>9481.948421597481</v>
+        <v>57816.04898452759</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1120.30594432354</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>-1719.29475659132</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1688.874999806285</v>
       </c>
       <c r="AG9">
-        <v>-72.58820774492196</v>
+        <v>3624.135488986969</v>
       </c>
       <c r="AH9">
-        <v>5231.053529986135</v>
+        <v>16969.3935354948</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>251601</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>90.43181815184653</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>44944.65676498413</v>
       </c>
       <c r="AC10">
-        <v>9593.193177938461</v>
+        <v>65414.31819534302</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>803.1590909957886</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-1315.077274024487</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1336.803571254015</v>
       </c>
       <c r="AG10">
-        <v>905.1497366696988</v>
+        <v>3637.361363112926</v>
       </c>
       <c r="AH10">
-        <v>2140.655858702585</v>
+        <v>22048.99773013592</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>216907</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="AB11">
-        <v>16607</v>
+        <v>71776</v>
       </c>
       <c r="AC11">
-        <v>19075</v>
+        <v>86490</v>
       </c>
       <c r="AD11">
-        <v>23</v>
+        <v>359</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="AG11">
-        <v>684.4338139224936</v>
+        <v>3550</v>
       </c>
       <c r="AH11">
-        <v>3621</v>
+        <v>16617</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>210244</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="AB12">
-        <v>2210</v>
+        <v>104240</v>
       </c>
       <c r="AC12">
-        <v>3257</v>
+        <v>122362</v>
       </c>
       <c r="AD12">
-        <v>12</v>
+        <v>658</v>
       </c>
       <c r="AE12">
-        <v>15.66136645995357</v>
+        <v>907</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AG12">
-        <v>611.773503661511</v>
+        <v>1388</v>
       </c>
       <c r="AH12">
-        <v>9757</v>
+        <v>39251</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>164450</v>
       </c>
       <c r="AA13">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="AB13">
-        <v>3448</v>
+        <v>166156</v>
       </c>
       <c r="AC13">
-        <v>6399</v>
+        <v>172709</v>
       </c>
       <c r="AD13">
-        <v>19</v>
+        <v>1044</v>
       </c>
       <c r="AE13">
-        <v>26.32803312661963</v>
+        <v>724</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="AG13">
-        <v>187</v>
+        <v>7240</v>
       </c>
       <c r="AH13">
-        <v>5410</v>
+        <v>38508</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>151336</v>
       </c>
       <c r="AA14">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="AB14">
-        <v>4692</v>
+        <v>184783</v>
       </c>
       <c r="AC14">
-        <v>8658</v>
+        <v>215618</v>
       </c>
       <c r="AD14">
-        <v>61</v>
+        <v>1126</v>
       </c>
       <c r="AE14">
-        <v>37</v>
+        <v>978</v>
       </c>
       <c r="AF14">
-        <v>50</v>
+        <v>819</v>
       </c>
       <c r="AG14">
-        <v>150</v>
+        <v>3638</v>
       </c>
       <c r="AH14">
-        <v>3831</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>279615</v>
       </c>
       <c r="AA15">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="AB15">
-        <v>12416</v>
+        <v>324767</v>
       </c>
       <c r="AC15">
-        <v>8853</v>
+        <v>345419</v>
       </c>
       <c r="AD15">
-        <v>114</v>
+        <v>1305</v>
       </c>
       <c r="AE15">
-        <v>47.67726708009104</v>
+        <v>2101</v>
       </c>
       <c r="AF15">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AG15">
-        <v>50</v>
+        <v>6908</v>
       </c>
       <c r="AH15">
-        <v>4473</v>
+        <v>52182</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>263903</v>
       </c>
       <c r="AA16">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="AB16">
-        <v>23494</v>
+        <v>442088</v>
       </c>
       <c r="AC16">
-        <v>18914</v>
+        <v>480639</v>
       </c>
       <c r="AD16">
-        <v>138</v>
+        <v>1639</v>
       </c>
       <c r="AE16">
-        <v>58.35983436689457</v>
+        <v>2643</v>
       </c>
       <c r="AF16">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="AG16">
-        <v>375</v>
+        <v>11142</v>
       </c>
       <c r="AH16">
-        <v>6094</v>
+        <v>40384</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>293.781</v>
       </c>
       <c r="K17">
-        <v>10.18892101809615</v>
+        <v>10.18892101716483</v>
       </c>
       <c r="L17">
-        <v>2.475958685521618</v>
+        <v>2.475958685557998</v>
       </c>
       <c r="M17">
         <v>30.9623450187282</v>
@@ -2226,28 +2226,28 @@
         <v>282384</v>
       </c>
       <c r="AA17">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="AB17">
-        <v>41448.1</v>
+        <v>489752.5</v>
       </c>
       <c r="AC17">
-        <v>34076.4</v>
+        <v>530595.1</v>
       </c>
       <c r="AD17">
-        <v>341</v>
+        <v>2190</v>
       </c>
       <c r="AE17">
-        <v>69.04770186040878</v>
+        <v>3155</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AG17">
-        <v>470</v>
+        <v>10568</v>
       </c>
       <c r="AH17">
-        <v>975</v>
+        <v>35199</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>400.3</v>
       </c>
       <c r="K18">
-        <v>10.30224719835678</v>
+        <v>10.30224719730904</v>
       </c>
       <c r="L18">
-        <v>2.695306520094164</v>
+        <v>2.695306520137819</v>
       </c>
       <c r="M18">
         <v>22.5499791787577</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>4.541032966735656</v>
+        <v>4.54103296714311</v>
       </c>
       <c r="V18">
         <v>95.5</v>
       </c>
       <c r="W18">
-        <v>93.10037362528965</v>
+        <v>93.1003736264538</v>
       </c>
       <c r="X18">
         <v>5698</v>
@@ -2330,28 +2330,28 @@
         <v>243788</v>
       </c>
       <c r="AA18">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="AB18">
-        <v>27674.8</v>
+        <v>581475.9</v>
       </c>
       <c r="AC18">
-        <v>20636.5</v>
+        <v>557546.1</v>
       </c>
       <c r="AD18">
-        <v>421</v>
+        <v>4179</v>
       </c>
       <c r="AE18">
-        <v>79.74086956063729</v>
+        <v>9615.299999999999</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="AG18">
-        <v>800.7</v>
+        <v>7703.9</v>
       </c>
       <c r="AH18">
-        <v>1343.8</v>
+        <v>43096.1</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>51.7</v>
       </c>
       <c r="E19">
-        <v>19128.01964354515</v>
+        <v>19128.01964303851</v>
       </c>
       <c r="F19">
         <v>25594.2134</v>
@@ -2386,10 +2386,10 @@
         <v>383.7</v>
       </c>
       <c r="K19">
-        <v>10.58499984123046</v>
+        <v>10.5849998400663</v>
       </c>
       <c r="L19">
-        <v>2.933971304250008</v>
+        <v>2.93397130430094</v>
       </c>
       <c r="M19">
         <v>17.548067199574</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>4.978956043632934</v>
+        <v>4.978956044069491</v>
       </c>
       <c r="V19">
         <v>97.90000000000001</v>
       </c>
       <c r="W19">
-        <v>95.55076373496559</v>
+        <v>95.55076373612974</v>
       </c>
       <c r="X19">
         <v>4892</v>
@@ -2434,28 +2434,28 @@
         <v>229331</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="AB19">
-        <v>22027</v>
+        <v>688633.3</v>
       </c>
       <c r="AC19">
-        <v>15961</v>
+        <v>776668.1</v>
       </c>
       <c r="AD19">
-        <v>122</v>
+        <v>4211</v>
       </c>
       <c r="AE19">
-        <v>90.43933746757648</v>
+        <v>9056.700000000001</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>443.339285671711</v>
       </c>
       <c r="AG19">
-        <v>2394.7</v>
+        <v>8788.700000000001</v>
       </c>
       <c r="AH19">
-        <v>2151</v>
+        <v>75051.2</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>50.9</v>
       </c>
       <c r="E20">
-        <v>20721.33392933011</v>
+        <v>20721.33392867446</v>
       </c>
       <c r="F20">
         <v>22951.7685</v>
@@ -2490,10 +2490,10 @@
         <v>435.8139</v>
       </c>
       <c r="K20">
-        <v>11.03717894660076</v>
+        <v>11.03717894532019</v>
       </c>
       <c r="L20">
-        <v>3.191953038003703</v>
+        <v>3.191953038054635</v>
       </c>
       <c r="M20">
         <v>10.4966233209012</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>5.444563348049996</v>
+        <v>5.444563348537486</v>
       </c>
       <c r="V20">
         <v>98.3</v>
       </c>
       <c r="W20">
-        <v>97.72217032813933</v>
+        <v>97.72217032895423</v>
       </c>
       <c r="X20">
         <v>6814</v>
@@ -2538,28 +2538,28 @@
         <v>204196</v>
       </c>
       <c r="AA20">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="AB20">
-        <v>26243</v>
+        <v>863596</v>
       </c>
       <c r="AC20">
-        <v>15688</v>
+        <v>940867</v>
       </c>
       <c r="AD20">
-        <v>319</v>
+        <v>5236</v>
       </c>
       <c r="AE20">
-        <v>101.1431055812282</v>
+        <v>21140</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>596.863095149398</v>
       </c>
       <c r="AG20">
-        <v>487</v>
+        <v>6057</v>
       </c>
       <c r="AH20">
-        <v>217</v>
+        <v>41181</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>47.9254</v>
       </c>
       <c r="E21">
-        <v>22381.15486770868</v>
+        <v>22381.15486699343</v>
       </c>
       <c r="F21">
         <v>25724</v>
@@ -2594,28 +2594,28 @@
         <v>433.1705</v>
       </c>
       <c r="K21">
-        <v>11.65878451452591</v>
+        <v>11.65878451312892</v>
       </c>
       <c r="L21">
-        <v>3.469251721355249</v>
+        <v>3.469251721420733</v>
       </c>
       <c r="M21">
         <v>8.33871023514665</v>
       </c>
       <c r="N21">
-        <v>167.8344330166694</v>
+        <v>176.8485844584918</v>
       </c>
       <c r="O21">
-        <v>111.8499509771354</v>
+        <v>111.8499509673566</v>
       </c>
       <c r="P21">
         <v>1118</v>
       </c>
       <c r="Q21">
-        <v>99.93500000014319</v>
+        <v>99.93499999999767</v>
       </c>
       <c r="R21">
-        <v>46.09308822720777</v>
+        <v>46.09308824513573</v>
       </c>
       <c r="S21">
         <v>532994</v>
@@ -2624,46 +2624,46 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>5.937854880015948</v>
+        <v>5.937854880539817</v>
       </c>
       <c r="V21">
         <v>97.3</v>
       </c>
       <c r="W21">
-        <v>99.61459340457805</v>
+        <v>99.61459340550937</v>
       </c>
       <c r="X21">
-        <v>6528.294109024771</v>
+        <v>6991.244278959859</v>
       </c>
       <c r="Y21">
-        <v>88.12038461701013</v>
+        <v>88.12038461520569</v>
       </c>
       <c r="Z21">
         <v>169802</v>
       </c>
       <c r="AA21">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="AB21">
-        <v>16871</v>
+        <v>1055375</v>
       </c>
       <c r="AC21">
-        <v>26181</v>
+        <v>1179269</v>
       </c>
       <c r="AD21">
-        <v>185</v>
+        <v>6314</v>
       </c>
       <c r="AE21">
-        <v>111.8521739015923</v>
+        <v>10873</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>800.946428418159</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>12842</v>
       </c>
       <c r="AH21">
-        <v>217</v>
+        <v>67073</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>44.9</v>
       </c>
       <c r="E22">
-        <v>24107.48245874047</v>
+        <v>24107.48245793581</v>
       </c>
       <c r="F22">
         <v>24142.2634</v>
@@ -2692,34 +2692,34 @@
         <v>57.89</v>
       </c>
       <c r="I22">
-        <v>1.595108359193546</v>
+        <v>1.595108359018923</v>
       </c>
       <c r="J22">
-        <v>518.2723419442773</v>
+        <v>518.2723419582471</v>
       </c>
       <c r="K22">
-        <v>12.44981654488947</v>
+        <v>12.4498165435507</v>
       </c>
       <c r="L22">
-        <v>3.765867354290094</v>
+        <v>3.765867354362854</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-15.50521542650677</v>
       </c>
       <c r="N22">
-        <v>162.876267398549</v>
+        <v>179.5462361262186</v>
       </c>
       <c r="O22">
-        <v>130.7096052584238</v>
+        <v>130.7096052477136</v>
       </c>
       <c r="P22">
-        <v>1428.329568151385</v>
+        <v>1428.329568168148</v>
       </c>
       <c r="Q22">
-        <v>100.3140712075983</v>
+        <v>100.3140712074528</v>
       </c>
       <c r="R22">
-        <v>52.36313724541105</v>
+        <v>52.3631372662494</v>
       </c>
       <c r="S22">
         <v>418164</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>6.45883063950896</v>
+        <v>6.458830640076485</v>
       </c>
       <c r="V22">
-        <v>100.9806295139206</v>
+        <v>100.9806295141716</v>
       </c>
       <c r="W22">
-        <v>101.228032964631</v>
+        <v>101.2280329652131</v>
       </c>
       <c r="X22">
-        <v>5569.080287533376</v>
+        <v>5912.538568021998</v>
       </c>
       <c r="Y22">
-        <v>91.1514395622653</v>
+        <v>91.15143956022803</v>
       </c>
       <c r="Z22">
-        <v>198399.8252703671</v>
+        <v>153620.6675935044</v>
       </c>
       <c r="AA22">
-        <v>12</v>
+        <v>443</v>
       </c>
       <c r="AB22">
-        <v>23913.8</v>
+        <v>1181174.6</v>
       </c>
       <c r="AC22">
-        <v>32680.6</v>
+        <v>1256661.5</v>
       </c>
       <c r="AD22">
-        <v>273</v>
+        <v>8524</v>
       </c>
       <c r="AE22">
-        <v>122.566542428669</v>
+        <v>12960.2</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1055.5892855227</v>
       </c>
       <c r="AG22">
-        <v>31</v>
+        <v>20683.9</v>
       </c>
       <c r="AH22">
-        <v>7067.3</v>
+        <v>57625.2</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>45.4</v>
       </c>
       <c r="E23">
-        <v>25900.31670242548</v>
+        <v>25900.31670159101</v>
       </c>
       <c r="F23">
-        <v>28814.17312648147</v>
+        <v>28814.17312632501</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-1.477172933635302</v>
       </c>
       <c r="H23">
-        <v>50.33326012641257</v>
+        <v>59.85927354511487</v>
       </c>
       <c r="I23">
-        <v>1.32525490201806</v>
+        <v>1.325254901843437</v>
       </c>
       <c r="J23">
-        <v>570.1909736683592</v>
+        <v>570.1909736832604</v>
       </c>
       <c r="K23">
-        <v>13.4102750379825</v>
+        <v>13.4102750364691</v>
       </c>
       <c r="L23">
-        <v>4.081799936830066</v>
+        <v>4.081799936902826</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-27.63189912802045</v>
       </c>
       <c r="N23">
-        <v>178.7547326582799</v>
+        <v>181.0308903130694</v>
       </c>
       <c r="O23">
-        <v>151.0089628421701</v>
+        <v>151.0089628305286</v>
       </c>
       <c r="P23">
-        <v>1528.665569284931</v>
+        <v>1528.66556930542</v>
       </c>
       <c r="Q23">
-        <v>100.6477399382711</v>
+        <v>100.6477399381401</v>
       </c>
       <c r="R23">
-        <v>59.14098296128213</v>
+        <v>59.14098298503086</v>
       </c>
       <c r="S23">
-        <v>577926.2300972939</v>
+        <v>577926.2300922871</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>7.00749062653631</v>
+        <v>7.00749062714749</v>
       </c>
       <c r="V23">
-        <v>102.907362227772</v>
+        <v>102.9073622280848</v>
       </c>
       <c r="W23">
-        <v>102.5624890082981</v>
+        <v>102.5624890086474</v>
       </c>
       <c r="X23">
-        <v>5467.377948973643</v>
+        <v>7089.63046312491</v>
       </c>
       <c r="Y23">
-        <v>93.94162912276806</v>
+        <v>93.94162912043976</v>
       </c>
       <c r="Z23">
-        <v>245259.8505193395</v>
+        <v>279739.8463098861</v>
       </c>
       <c r="AA23">
-        <v>6.568181810434908</v>
+        <v>476.1136364266276</v>
       </c>
       <c r="AB23">
-        <v>21544.73408412933</v>
+        <v>1362341.125141144</v>
       </c>
       <c r="AC23">
-        <v>32685.39772778749</v>
+        <v>1485993.563716888</v>
       </c>
       <c r="AD23">
-        <v>242.1818181220442</v>
+        <v>9651.386364519596</v>
       </c>
       <c r="AE23">
-        <v>133.2862111624581</v>
+        <v>18568.04091072083</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1360.791666850448</v>
       </c>
       <c r="AG23">
-        <v>619.2685888351967</v>
+        <v>17766.68409276009</v>
       </c>
       <c r="AH23">
-        <v>4541.527504683934</v>
+        <v>60395.70227456093</v>
       </c>
     </row>
   </sheetData>
